--- a/Presencial_NOC-TR.xlsx
+++ b/Presencial_NOC-TR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DGB\PROGRAMACION\PRACTICAS\11-Grilla\grilla\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E4BAC7-7A8C-43A5-A1D0-6C123C11A2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5707626F-5F13-498F-A513-7314F4880982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ene-23" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="38">
   <si>
     <t>Legajo</t>
   </si>
@@ -148,15 +148,18 @@
   <si>
     <t>User</t>
   </si>
+  <si>
+    <t>V</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="00"/>
+    <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +209,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +269,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -604,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -816,14 +832,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1140,7 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1150,7 +1198,7 @@
     <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="74" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="72" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10713,7 +10761,2234 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57671056-3349-4327-AD00-4B9D98648651}">
-  <dimension ref="A1:AF26"/>
+  <dimension ref="A1:AF25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:AF25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="32" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" s="72" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="71">
+        <v>1</v>
+      </c>
+      <c r="D1" s="71">
+        <v>2</v>
+      </c>
+      <c r="E1" s="71">
+        <v>3</v>
+      </c>
+      <c r="F1" s="71">
+        <v>4</v>
+      </c>
+      <c r="G1" s="71">
+        <v>5</v>
+      </c>
+      <c r="H1" s="71">
+        <v>6</v>
+      </c>
+      <c r="I1" s="71">
+        <v>7</v>
+      </c>
+      <c r="J1" s="71">
+        <v>8</v>
+      </c>
+      <c r="K1" s="71">
+        <v>9</v>
+      </c>
+      <c r="L1" s="71">
+        <v>10</v>
+      </c>
+      <c r="M1" s="71">
+        <v>11</v>
+      </c>
+      <c r="N1" s="71">
+        <v>12</v>
+      </c>
+      <c r="O1" s="71">
+        <v>13</v>
+      </c>
+      <c r="P1" s="71">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="71">
+        <v>15</v>
+      </c>
+      <c r="R1" s="71">
+        <v>16</v>
+      </c>
+      <c r="S1" s="71">
+        <v>17</v>
+      </c>
+      <c r="T1" s="71">
+        <v>18</v>
+      </c>
+      <c r="U1" s="71">
+        <v>19</v>
+      </c>
+      <c r="V1" s="71">
+        <v>20</v>
+      </c>
+      <c r="W1" s="71">
+        <v>21</v>
+      </c>
+      <c r="X1" s="71">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="71">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="71">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="71">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="71">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="71">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="71">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="71">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="71">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>505714</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>564570</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC3" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="80"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>596551</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="42"/>
+      <c r="J4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>563271</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="42"/>
+      <c r="L5" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="80"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>164984</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="80"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>199807</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="X7" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z7" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB7" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD7" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>591393</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="42"/>
+      <c r="L8" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="W8" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="80"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>183606</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF9" s="80"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>191432</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="42"/>
+      <c r="S10" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA10" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB10" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC10" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD10" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE10" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF10" s="83" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>571087</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="42"/>
+      <c r="L11" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" s="42"/>
+      <c r="S11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA11" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD11" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="80"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>563265</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF12" s="80"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>606145</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="U13" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="X13" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y13" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z13" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA13" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB13" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC13" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD13" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE13" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF13" s="83" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>544220</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="W14" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="X14" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y14" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z14" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA14" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB14" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC14" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD14" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="80"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>631885</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="42"/>
+      <c r="S15" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF15" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>604424</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="42"/>
+      <c r="K16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="W16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="X16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD16" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="80"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>603093</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="V17" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>609972</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="T18" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="V18" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="W18" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="X18" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y18" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z18" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB18" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="80"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>632073</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="S19" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="T19" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="U19" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="V19" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="W19" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="X19" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y19" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z19" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA19" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB19" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC19" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD19" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="80"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>186509</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="42"/>
+      <c r="J20" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="42"/>
+      <c r="L20" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="V20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="W20" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA20" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB20" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC20" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD20" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE20" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF20" s="83" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>631881</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="42"/>
+      <c r="K21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="T21" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="U21" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="W21" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="X21" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y21" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z21" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB21" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC21" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="80"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>565590</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="U22" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>172357</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="P23" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q23" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="R23" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="S23" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="T23" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="X23" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF23" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>632183</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="T24" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="U24" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="W24" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z24" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA24" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>198896</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="42"/>
+      <c r="J25" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="42"/>
+      <c r="L25" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="P25" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="R25" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="S25" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="T25" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="U25" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="V25" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="W25" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="80"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AE3748-A0F6-4B2B-853B-C21A453C5BB5}">
+  <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:XFD1"/>
@@ -10725,7 +13000,7 @@
     <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="72" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="72" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10822,96 +13097,49 @@
       <c r="AF1" s="71">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG1" s="71">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>505714</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
-      <c r="L2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
       <c r="R2" s="18"/>
-      <c r="S2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="S2" s="17"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
-      <c r="Z2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF2" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>564570</v>
       </c>
@@ -10919,85 +13147,37 @@
         <v>9</v>
       </c>
       <c r="C3" s="24"/>
-      <c r="D3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="V3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="W3" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
-      <c r="Z3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE3" s="19" t="s">
-        <v>3</v>
-      </c>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
       <c r="AF3" s="18"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>596551</v>
       </c>
@@ -11006,82 +13186,36 @@
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="S4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="T4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="U4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
       <c r="Y4" s="18"/>
-      <c r="Z4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
       <c r="AE4" s="18"/>
       <c r="AF4" s="18"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>563271</v>
       </c>
@@ -11090,82 +13224,36 @@
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
-      <c r="S5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="V5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="W5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="X5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
       <c r="AE5" s="18"/>
       <c r="AF5" s="18"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>164984</v>
       </c>
@@ -11174,82 +13262,36 @@
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>3</v>
-      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
       <c r="K6" s="18"/>
-      <c r="L6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>3</v>
-      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
-      <c r="S6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="U6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="W6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="X6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB6" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC6" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD6" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
       <c r="AE6" s="18"/>
       <c r="AF6" s="18"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>199807</v>
       </c>
@@ -11258,82 +13300,36 @@
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
-      <c r="S7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="V7" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="W7" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="X7" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
       <c r="Y7" s="18"/>
-      <c r="Z7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA7" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB7" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC7" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD7" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
       <c r="AE7" s="18"/>
       <c r="AF7" s="18"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>591393</v>
       </c>
@@ -11341,85 +13337,37 @@
         <v>16</v>
       </c>
       <c r="C8" s="24"/>
-      <c r="D8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="S8" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="W8" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="18"/>
       <c r="Y8" s="18"/>
-      <c r="Z8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
       <c r="AF8" s="18"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>183606</v>
       </c>
@@ -11435,149 +13383,67 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="P9" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
-      <c r="S9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="T9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="W9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="X9" s="19" t="s">
-        <v>3</v>
-      </c>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
       <c r="Y9" s="18"/>
-      <c r="Z9" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD9" s="19" t="s">
-        <v>3</v>
-      </c>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="18"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>191432</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
-      <c r="L10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
       <c r="R10" s="18"/>
-      <c r="S10" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="T10" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="U10" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="V10" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="W10" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="S10" s="15"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
       <c r="X10" s="18"/>
       <c r="Y10" s="18"/>
-      <c r="Z10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF10" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>571087</v>
       </c>
@@ -11586,82 +13452,36 @@
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="P11" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
-      <c r="S11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD11" s="19" t="s">
-        <v>3</v>
-      </c>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
       <c r="AE11" s="18"/>
       <c r="AF11" s="18"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>563265</v>
       </c>
@@ -11669,112 +13489,50 @@
         <v>20</v>
       </c>
       <c r="C12" s="24"/>
-      <c r="D12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="S12" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="U12" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="V12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="W12" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
-      <c r="Z12" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA12" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB12" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC12" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD12" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE12" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
       <c r="AF12" s="18"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>606145</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
@@ -11799,7 +13557,7 @@
       <c r="AE13" s="18"/>
       <c r="AF13" s="18"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>544220</v>
       </c>
@@ -11808,82 +13566,36 @@
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
-      <c r="S14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="T14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="U14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="V14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="W14" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
       <c r="X14" s="18"/>
-      <c r="Y14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="17"/>
       <c r="AE14" s="18"/>
       <c r="AF14" s="18"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>631690</v>
       </c>
@@ -11921,93 +13633,43 @@
       <c r="AE15" s="27"/>
       <c r="AF15" s="27"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>631885</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="O16" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="P16" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
       <c r="R16" s="18"/>
-      <c r="S16" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="T16" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="U16" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="V16" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="W16" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="S16" s="17"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
-      <c r="Z16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF16" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -12018,78 +13680,32 @@
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="18"/>
-      <c r="E17" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="18"/>
-      <c r="K17" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N17" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="P17" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="17"/>
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
-      <c r="S17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="T17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="U17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="V17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="W17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="X17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z17" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD17" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
       <c r="AE17" s="18"/>
       <c r="AF17" s="18"/>
     </row>
@@ -12100,86 +13716,36 @@
       <c r="B18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
-      <c r="L18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="16" t="s">
-        <v>5</v>
-      </c>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
       <c r="Q18" s="18"/>
-      <c r="R18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="17"/>
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
-      <c r="Z18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF18" s="16" t="s">
-        <v>5</v>
-      </c>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
@@ -12190,78 +13756,32 @@
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="N19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P19" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
-      <c r="S19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="T19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="U19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="W19" s="16" t="s">
-        <v>5</v>
-      </c>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
       <c r="X19" s="18"/>
-      <c r="Y19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD19" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="17"/>
       <c r="AE19" s="18"/>
       <c r="AF19" s="18"/>
     </row>
@@ -12274,78 +13794,32 @@
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>5</v>
-      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="17"/>
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
-      <c r="S20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="X20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA20" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB20" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC20" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD20" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
       <c r="AE20" s="18"/>
       <c r="AF20" s="18"/>
     </row>
@@ -12356,86 +13830,36 @@
       <c r="B21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>3</v>
-      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
-      <c r="L21" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="P21" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
       <c r="Q21" s="18"/>
-      <c r="R21" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="V21" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="W21" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="17"/>
       <c r="X21" s="18"/>
       <c r="Y21" s="18"/>
-      <c r="Z21" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA21" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB21" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC21" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD21" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE21" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF21" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
@@ -12446,78 +13870,32 @@
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="18"/>
-      <c r="K22" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="17"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
-      <c r="S22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="T22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="U22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="V22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="W22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="X22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z22" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA22" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB22" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC22" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD22" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
       <c r="AE22" s="18"/>
       <c r="AF22" s="18"/>
     </row>
@@ -12528,84 +13906,36 @@
       <c r="B23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="C23" s="23"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>3</v>
-      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="O23" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q23" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="R23" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="S23" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="T23" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="U23" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="V23" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="W23" s="19" t="s">
-        <v>3</v>
-      </c>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
       <c r="X23" s="18"/>
       <c r="Y23" s="18"/>
-      <c r="Z23" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA23" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB23" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC23" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD23" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
       <c r="AE23" s="18"/>
-      <c r="AF23" s="19" t="s">
-        <v>3</v>
-      </c>
+      <c r="AF23" s="19"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -12614,86 +13944,36 @@
       <c r="B24" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
-      <c r="L24" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="19" t="s">
-        <v>3</v>
-      </c>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
       <c r="R24" s="18"/>
-      <c r="S24" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="T24" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="U24" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="V24" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="W24" s="19" t="s">
-        <v>3</v>
-      </c>
+      <c r="S24" s="17"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
       <c r="X24" s="18"/>
       <c r="Y24" s="18"/>
-      <c r="Z24" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC24" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD24" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE24" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF24" s="16" t="s">
-        <v>5</v>
-      </c>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -12702,84 +13982,36 @@
       <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>4</v>
-      </c>
+      <c r="C25" s="31"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>4</v>
-      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
-      <c r="L25" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="P25" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q25" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="R25" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="S25" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="T25" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="U25" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="V25" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="W25" s="32" t="s">
-        <v>4</v>
-      </c>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
       <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
-      <c r="Z25" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA25" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB25" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC25" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD25" s="16" t="s">
-        <v>5</v>
-      </c>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
       <c r="AE25" s="26"/>
-      <c r="AF25" s="32" t="s">
-        <v>4</v>
-      </c>
+      <c r="AF25" s="32"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -12790,72 +14022,32 @@
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" s="38" t="s">
-        <v>35</v>
-      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
       <c r="J26" s="37"/>
       <c r="K26" s="37"/>
-      <c r="L26" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="P26" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
       <c r="Q26" s="40"/>
       <c r="R26" s="40"/>
-      <c r="S26" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="T26" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="U26" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="V26" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="W26" s="38" t="s">
-        <v>35</v>
-      </c>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
       <c r="X26" s="37"/>
       <c r="Y26" s="37"/>
-      <c r="Z26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB26" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC26" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD26" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
       <c r="AE26" s="37"/>
       <c r="AF26" s="37"/>
     </row>
@@ -12864,12 +14056,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AE3748-A0F6-4B2B-853B-C21A453C5BB5}">
-  <dimension ref="A1:AG26"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4BE81E-66A8-4AF2-8FC2-1AFACACA7E20}">
+  <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:XFD1"/>
+      <selection activeCell="C1" activeCellId="1" sqref="C1:XFD1 C1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12878,7 +14070,7 @@
     <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="72" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="72" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -12975,11 +14167,8 @@
       <c r="AF1" s="71">
         <v>30</v>
       </c>
-      <c r="AG1" s="71">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>505714</v>
       </c>
@@ -13017,7 +14206,7 @@
       <c r="AE2" s="16"/>
       <c r="AF2" s="16"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>564570</v>
       </c>
@@ -13055,7 +14244,7 @@
       <c r="AE3" s="19"/>
       <c r="AF3" s="18"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>596551</v>
       </c>
@@ -13093,7 +14282,7 @@
       <c r="AE4" s="18"/>
       <c r="AF4" s="18"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>563271</v>
       </c>
@@ -13131,7 +14320,7 @@
       <c r="AE5" s="18"/>
       <c r="AF5" s="18"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>164984</v>
       </c>
@@ -13169,7 +14358,7 @@
       <c r="AE6" s="18"/>
       <c r="AF6" s="18"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>199807</v>
       </c>
@@ -13207,7 +14396,7 @@
       <c r="AE7" s="18"/>
       <c r="AF7" s="18"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>591393</v>
       </c>
@@ -13245,7 +14434,7 @@
       <c r="AE8" s="15"/>
       <c r="AF8" s="18"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>183606</v>
       </c>
@@ -13283,7 +14472,7 @@
       <c r="AE9" s="18"/>
       <c r="AF9" s="18"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>191432</v>
       </c>
@@ -13321,7 +14510,7 @@
       <c r="AE10" s="16"/>
       <c r="AF10" s="16"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>571087</v>
       </c>
@@ -13359,7 +14548,7 @@
       <c r="AE11" s="18"/>
       <c r="AF11" s="18"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>563265</v>
       </c>
@@ -13397,7 +14586,7 @@
       <c r="AE12" s="20"/>
       <c r="AF12" s="18"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>606145</v>
       </c>
@@ -13435,7 +14624,7 @@
       <c r="AE13" s="18"/>
       <c r="AF13" s="18"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>544220</v>
       </c>
@@ -13473,7 +14662,7 @@
       <c r="AE14" s="18"/>
       <c r="AF14" s="18"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>631690</v>
       </c>
@@ -13511,7 +14700,7 @@
       <c r="AE15" s="27"/>
       <c r="AF15" s="27"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>631885</v>
       </c>
@@ -13934,12 +15123,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4BE81E-66A8-4AF2-8FC2-1AFACACA7E20}">
-  <dimension ref="A1:AF26"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F397CF95-07C3-466C-8900-7B1F722AF245}">
+  <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="C1:XFD1 C1:XFD1"/>
+      <selection activeCell="C1" sqref="C1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13948,7 +15137,7 @@
     <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="72" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="72" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -14045,8 +15234,11 @@
       <c r="AF1" s="71">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG1" s="71">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>505714</v>
       </c>
@@ -14084,7 +15276,7 @@
       <c r="AE2" s="16"/>
       <c r="AF2" s="16"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>564570</v>
       </c>
@@ -14122,7 +15314,7 @@
       <c r="AE3" s="19"/>
       <c r="AF3" s="18"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>596551</v>
       </c>
@@ -14160,7 +15352,7 @@
       <c r="AE4" s="18"/>
       <c r="AF4" s="18"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>563271</v>
       </c>
@@ -14198,7 +15390,7 @@
       <c r="AE5" s="18"/>
       <c r="AF5" s="18"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>164984</v>
       </c>
@@ -14236,7 +15428,7 @@
       <c r="AE6" s="18"/>
       <c r="AF6" s="18"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>199807</v>
       </c>
@@ -14274,7 +15466,7 @@
       <c r="AE7" s="18"/>
       <c r="AF7" s="18"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>591393</v>
       </c>
@@ -14312,7 +15504,7 @@
       <c r="AE8" s="15"/>
       <c r="AF8" s="18"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>183606</v>
       </c>
@@ -14350,7 +15542,7 @@
       <c r="AE9" s="18"/>
       <c r="AF9" s="18"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>191432</v>
       </c>
@@ -14388,7 +15580,7 @@
       <c r="AE10" s="16"/>
       <c r="AF10" s="16"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>571087</v>
       </c>
@@ -14426,7 +15618,7 @@
       <c r="AE11" s="18"/>
       <c r="AF11" s="18"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>563265</v>
       </c>
@@ -14464,7 +15656,7 @@
       <c r="AE12" s="20"/>
       <c r="AF12" s="18"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>606145</v>
       </c>
@@ -14502,7 +15694,7 @@
       <c r="AE13" s="18"/>
       <c r="AF13" s="18"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>544220</v>
       </c>
@@ -14540,7 +15732,7 @@
       <c r="AE14" s="18"/>
       <c r="AF14" s="18"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>631690</v>
       </c>
@@ -14578,7 +15770,7 @@
       <c r="AE15" s="27"/>
       <c r="AF15" s="27"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>631885</v>
       </c>
@@ -15001,9 +16193,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F397CF95-07C3-466C-8900-7B1F722AF245}">
-  <dimension ref="A1:AG26"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C601A1-CDE3-492B-A6EC-B1F57BC1CF00}">
+  <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:XFD1"/>
@@ -15015,7 +16207,7 @@
     <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="72" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="72" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -15112,11 +16304,8 @@
       <c r="AF1" s="71">
         <v>30</v>
       </c>
-      <c r="AG1" s="71">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>505714</v>
       </c>
@@ -15154,7 +16343,7 @@
       <c r="AE2" s="16"/>
       <c r="AF2" s="16"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>564570</v>
       </c>
@@ -15192,7 +16381,7 @@
       <c r="AE3" s="19"/>
       <c r="AF3" s="18"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>596551</v>
       </c>
@@ -15230,7 +16419,7 @@
       <c r="AE4" s="18"/>
       <c r="AF4" s="18"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>563271</v>
       </c>
@@ -15268,7 +16457,7 @@
       <c r="AE5" s="18"/>
       <c r="AF5" s="18"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>164984</v>
       </c>
@@ -15306,7 +16495,7 @@
       <c r="AE6" s="18"/>
       <c r="AF6" s="18"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>199807</v>
       </c>
@@ -15344,7 +16533,7 @@
       <c r="AE7" s="18"/>
       <c r="AF7" s="18"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>591393</v>
       </c>
@@ -15382,7 +16571,7 @@
       <c r="AE8" s="15"/>
       <c r="AF8" s="18"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>183606</v>
       </c>
@@ -15420,7 +16609,7 @@
       <c r="AE9" s="18"/>
       <c r="AF9" s="18"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>191432</v>
       </c>
@@ -15458,7 +16647,7 @@
       <c r="AE10" s="16"/>
       <c r="AF10" s="16"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>571087</v>
       </c>
@@ -15496,7 +16685,7 @@
       <c r="AE11" s="18"/>
       <c r="AF11" s="18"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>563265</v>
       </c>
@@ -15534,7 +16723,7 @@
       <c r="AE12" s="20"/>
       <c r="AF12" s="18"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>606145</v>
       </c>
@@ -15572,7 +16761,7 @@
       <c r="AE13" s="18"/>
       <c r="AF13" s="18"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>544220</v>
       </c>
@@ -15610,7 +16799,7 @@
       <c r="AE14" s="18"/>
       <c r="AF14" s="18"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>631690</v>
       </c>
@@ -15648,7 +16837,7 @@
       <c r="AE15" s="27"/>
       <c r="AF15" s="27"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>631885</v>
       </c>
@@ -16071,8 +17260,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C601A1-CDE3-492B-A6EC-B1F57BC1CF00}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C566F6-3D4A-4E69-A1D8-665639E04DCB}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17138,1094 +18327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C566F6-3D4A-4E69-A1D8-665639E04DCB}">
-  <dimension ref="A1:AF26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" s="72" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="71">
-        <v>1</v>
-      </c>
-      <c r="D1" s="71">
-        <v>2</v>
-      </c>
-      <c r="E1" s="71">
-        <v>3</v>
-      </c>
-      <c r="F1" s="71">
-        <v>4</v>
-      </c>
-      <c r="G1" s="71">
-        <v>5</v>
-      </c>
-      <c r="H1" s="71">
-        <v>6</v>
-      </c>
-      <c r="I1" s="71">
-        <v>7</v>
-      </c>
-      <c r="J1" s="71">
-        <v>8</v>
-      </c>
-      <c r="K1" s="71">
-        <v>9</v>
-      </c>
-      <c r="L1" s="71">
-        <v>10</v>
-      </c>
-      <c r="M1" s="71">
-        <v>11</v>
-      </c>
-      <c r="N1" s="71">
-        <v>12</v>
-      </c>
-      <c r="O1" s="71">
-        <v>13</v>
-      </c>
-      <c r="P1" s="71">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="71">
-        <v>15</v>
-      </c>
-      <c r="R1" s="71">
-        <v>16</v>
-      </c>
-      <c r="S1" s="71">
-        <v>17</v>
-      </c>
-      <c r="T1" s="71">
-        <v>18</v>
-      </c>
-      <c r="U1" s="71">
-        <v>19</v>
-      </c>
-      <c r="V1" s="71">
-        <v>20</v>
-      </c>
-      <c r="W1" s="71">
-        <v>21</v>
-      </c>
-      <c r="X1" s="71">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="71">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="71">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="71">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="71">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="71">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="71">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="71">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="71">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>505714</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>564570</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="18"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>596551</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>563271</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>164984</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>199807</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>591393</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="18"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>183606</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>191432</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>571087</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>563265</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="18"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>606145</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="18"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>544220</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>631690</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>631885</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>604424</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>603093</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>609972</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>632073</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>186509</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>631881</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>565590</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="19"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>172357</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>632183</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="32"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>198896</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="37"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7955d51c-9b1d-4862-b1e1-8f6b314bbe3b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0a1d8ec1-7b83-4454-99bc-dcafa9d2dc2f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C034BAD194EF4B478D2433AB6F7BBF10" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e84ab12956bc8fdfdcad2bd1af5eb08">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7955d51c-9b1d-4862-b1e1-8f6b314bbe3b" xmlns:ns3="0a1d8ec1-7b83-4454-99bc-dcafa9d2dc2f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c61d52eb4a6968bafe898a33880579fc" ns2:_="" ns3:_="">
     <xsd:import namespace="7955d51c-9b1d-4862-b1e1-8f6b314bbe3b"/>
@@ -18468,10 +18570,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7955d51c-9b1d-4862-b1e1-8f6b314bbe3b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0a1d8ec1-7b83-4454-99bc-dcafa9d2dc2f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1D02797-54E7-4F07-8F5D-774DD082BC75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B63364E9-CAB3-4EDC-B19F-EF90981B549F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7955d51c-9b1d-4862-b1e1-8f6b314bbe3b"/>
+    <ds:schemaRef ds:uri="0a1d8ec1-7b83-4454-99bc-dcafa9d2dc2f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18488,20 +18621,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B63364E9-CAB3-4EDC-B19F-EF90981B549F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1D02797-54E7-4F07-8F5D-774DD082BC75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7955d51c-9b1d-4862-b1e1-8f6b314bbe3b"/>
-    <ds:schemaRef ds:uri="0a1d8ec1-7b83-4454-99bc-dcafa9d2dc2f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>